--- a/Data/salaries by economic activity.xlsx
+++ b/Data/salaries by economic activity.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="660" windowWidth="14775" windowHeight="4815"/>
+    <workbookView xWindow="600" yWindow="660" windowWidth="21620" windowHeight="11260" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="salaries by econom.act." sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -112,14 +125,14 @@
     <t xml:space="preserve">Data source - official report of Ukrainian State Statistic Committee “Labour of Ukraine 2015” – paragraph 7. https://ukrstat.org/uk/druk/publicat/kat_u/2016/zb/08/zb_pu15w.zip </t>
   </si>
   <si>
-    <t>salaries in Ukraine by economic activity and company (orgainzation, institution, body) legal form in 2015 (UAN)</t>
+    <t>salaries in Ukraine by economic activity and company (orgainzation, institution, body) legal form in 2015 (UAH)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,7 +185,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -215,13 +228,18 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -259,14 +277,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -293,14 +311,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -327,9 +346,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,21 +522,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="B18" sqref="B18:M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="100.5">
+    <row r="1" spans="1:13" ht="99" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" t="s">
         <v>28</v>
@@ -555,7 +575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,7 +616,7 @@
         <v>4579</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="29" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -637,7 +657,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -678,7 +698,7 @@
         <v>4489</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -719,7 +739,7 @@
         <v>4462</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -760,7 +780,7 @@
         <v>5461</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
@@ -801,7 +821,7 @@
         <v>4854</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
@@ -842,7 +862,7 @@
         <v>3470</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>16</v>
       </c>
@@ -883,7 +903,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>17</v>
       </c>
@@ -924,7 +944,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>18</v>
       </c>
@@ -965,7 +985,7 @@
         <v>2711</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -1006,7 +1026,7 @@
         <v>14851</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1047,7 +1067,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>25</v>
       </c>
@@ -1088,7 +1108,7 @@
         <v>7871</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1129,7 +1149,7 @@
         <v>2931</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
@@ -1170,7 +1190,7 @@
         <v>3031</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>20</v>
       </c>
@@ -1211,7 +1231,7 @@
         <v>2674</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1">
+    <row r="18" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
@@ -1259,24 +1279,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -1287,12 +1305,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
